--- a/Data/DataForm.xlsx
+++ b/Data/DataForm.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bui Nguyen Minh Quan\Documents\UCRM_Process2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bui Nguyen Minh Quan\Documents\UCRM_Processnew4\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FC5230-A5C4-4FCD-BCD9-7AC8DA9ADF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3705" yWindow="16080" windowWidth="29040" windowHeight="15720" xr2:uid="{2AE60FD5-094F-4949-A034-CA5C9C42BA5B}"/>
+    <workbookView xWindow="-3705" yWindow="16080" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -351,7 +350,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -714,26 +713,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7ADEB32-0DFD-4B78-8337-2B4911879A48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="M94" sqref="M94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="44.5546875" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="44.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -759,7 +758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -785,7 +784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -811,7 +810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -837,7 +836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -863,7 +862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -889,7 +888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -915,7 +914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -941,7 +940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -967,7 +966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -993,7 +992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1019,7 +1018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1045,7 +1044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1071,7 +1070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1097,7 +1096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1123,7 +1122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1149,7 +1148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1175,7 +1174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1201,7 +1200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1227,7 +1226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1253,7 +1252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1279,7 +1278,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1305,7 +1304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1331,7 +1330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1357,7 +1356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1383,7 +1382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1409,7 +1408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1435,7 +1434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1461,7 +1460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1487,7 +1486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1513,7 +1512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1539,7 +1538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1565,7 +1564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1591,7 +1590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1617,7 +1616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1643,7 +1642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1669,7 +1668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1695,7 +1694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1721,7 +1720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -1747,7 +1746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -1773,7 +1772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -1799,7 +1798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -1825,7 +1824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -1851,7 +1850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -1877,7 +1876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -1903,7 +1902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -1929,7 +1928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -1955,7 +1954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -1981,7 +1980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -2007,7 +2006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -2033,7 +2032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -2059,7 +2058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -2085,7 +2084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -2111,7 +2110,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -2137,7 +2136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -2163,7 +2162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -2189,7 +2188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -2215,7 +2214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -2241,7 +2240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -2267,7 +2266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -2293,7 +2292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -2319,7 +2318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -2345,7 +2344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -2371,7 +2370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -2397,7 +2396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -2423,7 +2422,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -2449,7 +2448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -2475,7 +2474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -2501,7 +2500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -2527,7 +2526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -2553,7 +2552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -2579,7 +2578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -2605,7 +2604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -2631,7 +2630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -2657,7 +2656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -2683,7 +2682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -2709,7 +2708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -2735,7 +2734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -2761,7 +2760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -2787,7 +2786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -2813,7 +2812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -2839,7 +2838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -2865,7 +2864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -2891,7 +2890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -2917,7 +2916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>16</v>
       </c>
@@ -2943,7 +2942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -2969,7 +2968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>16</v>
       </c>
@@ -2995,7 +2994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>16</v>
       </c>
@@ -3021,7 +3020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>16</v>
       </c>
@@ -3047,7 +3046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>16</v>
       </c>
@@ -3073,7 +3072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>16</v>
       </c>
@@ -3099,7 +3098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>16</v>
       </c>
@@ -3125,7 +3124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>16</v>
       </c>
@@ -3151,7 +3150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>16</v>
       </c>
@@ -3177,7 +3176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>16</v>
       </c>
@@ -3203,7 +3202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -3229,7 +3228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>16</v>
       </c>
@@ -3255,7 +3254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>16</v>
       </c>
@@ -3281,7 +3280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -3307,7 +3306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -3336,17 +3335,17 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{FC727785-4032-4EAB-B579-AB09346A36F1}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{9B17DF45-A333-4EE2-BDE9-1FF1F37CE060}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{C4F18CAC-9D36-47A9-A0F9-DB9E20E5D1C4}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{662DDA58-F2CB-4F6C-BBDA-21ADE2D9947E}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{7E1E8116-8D2C-45B3-88E5-D93DACBD1787}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{15BE6C26-12C2-4603-B230-AE787FA42DAE}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{DF503074-962D-45F8-B8F8-33B25C0DA52A}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{7BB469FD-1BCD-4CB8-A08F-B928641BA738}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{8332099F-5CEC-4C70-9E03-E2AA172F57E3}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{71D243BA-FE48-4B60-85E5-4A127F2C6120}"/>
-    <hyperlink ref="D12:D100" r:id="rId11" display="quanbnm@basebs.com" xr:uid="{5B25F5A2-6AEA-4DF0-9762-E994237317FC}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12:D100" r:id="rId11" display="quanbnm@basebs.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId12"/>
